--- a/Admin/Filip/TimeSheet_Week12.xlsx
+++ b/Admin/Filip/TimeSheet_Week12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive\Documents\Capstone\SeniorDesignProject\Admin\Filip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9074715-ADFB-4CA7-990C-9A0777DFE52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F5C45F-355B-454A-AD95-28245E9FBB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,11 +756,13 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -809,13 +811,15 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <v>0.5</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="9"/>
       <c r="I11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="7"/>
     </row>
@@ -856,7 +860,7 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
@@ -864,7 +868,7 @@
       </c>
       <c r="G13" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
@@ -872,7 +876,7 @@
       </c>
       <c r="I13" s="11">
         <f>SUM(I6:I12)</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
